--- a/JAVA5_ASM/Exel_lab.xlsx
+++ b/JAVA5_ASM/Exel_lab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\workspace-spring-tool-suite-4-4.27.0.RELEASE\JAVA5_ASM\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="168">
   <si>
     <t>Project Name:</t>
   </si>
@@ -909,11 +909,18 @@
   <si>
     <t>Please enter your shipping address !</t>
   </si>
+  <si>
+    <t>Error some where !</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1620,16 +1627,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="9" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.33203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.33203125"/>
+    <col min="4" max="4" customWidth="true" width="27.5546875"/>
+    <col min="5" max="5" customWidth="true" width="24.0"/>
+    <col min="6" max="6" customWidth="true" width="24.5546875"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875"/>
+    <col min="8" max="8" customWidth="true" width="27.6640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="56.88671875"/>
+    <col min="10" max="10" customWidth="true" width="32.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -2572,10 +2579,10 @@
         <v>24</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2632,10 +2639,10 @@
         <v>24</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">

--- a/JAVA5_ASM/Exel_lab.xlsx
+++ b/JAVA5_ASM/Exel_lab.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="168">
   <si>
     <t>Project Name:</t>
   </si>
